--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H2">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I2">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J2">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.027884333333333</v>
+        <v>0.774269</v>
       </c>
       <c r="N2">
-        <v>6.083653</v>
+        <v>2.322807</v>
       </c>
       <c r="O2">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="P2">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="Q2">
-        <v>2.571419523119555</v>
+        <v>0.4672710834103333</v>
       </c>
       <c r="R2">
-        <v>23.142775708076</v>
+        <v>4.205439750693</v>
       </c>
       <c r="S2">
-        <v>0.03949812168474303</v>
+        <v>0.0120363627267324</v>
       </c>
       <c r="T2">
-        <v>0.03949812168474304</v>
+        <v>0.01203636272673241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H3">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I3">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J3">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.63013966666667</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N3">
-        <v>76.89041900000001</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="P3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="Q3">
-        <v>32.49980308828311</v>
+        <v>15.46778074545344</v>
       </c>
       <c r="R3">
-        <v>292.498227794548</v>
+        <v>139.210026709081</v>
       </c>
       <c r="S3">
-        <v>0.4992111032718135</v>
+        <v>0.3984321440801741</v>
       </c>
       <c r="T3">
-        <v>0.4992111032718135</v>
+        <v>0.3984321440801742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H4">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I4">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J4">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.232082666666667</v>
+        <v>1.783575</v>
       </c>
       <c r="N4">
-        <v>3.696248</v>
+        <v>5.350725000000001</v>
       </c>
       <c r="O4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="P4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="Q4">
-        <v>1.562318605201778</v>
+        <v>1.076386917975</v>
       </c>
       <c r="R4">
-        <v>14.060867446816</v>
+        <v>9.687482261775001</v>
       </c>
       <c r="S4">
-        <v>0.02399789292403562</v>
+        <v>0.02772648220493362</v>
       </c>
       <c r="T4">
-        <v>0.02399789292403562</v>
+        <v>0.02772648220493363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.258355</v>
       </c>
       <c r="I5">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J5">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.027884333333333</v>
+        <v>0.774269</v>
       </c>
       <c r="N5">
-        <v>6.083653</v>
+        <v>2.322807</v>
       </c>
       <c r="O5">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="P5">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="Q5">
-        <v>0.8505994634238887</v>
+        <v>0.3247684224983333</v>
       </c>
       <c r="R5">
-        <v>7.655395170814999</v>
+        <v>2.922915802485</v>
       </c>
       <c r="S5">
-        <v>0.01306557751826318</v>
+        <v>0.008365658980754672</v>
       </c>
       <c r="T5">
-        <v>0.01306557751826318</v>
+        <v>0.008365658980754673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.258355</v>
       </c>
       <c r="I6">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J6">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.63013966666667</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N6">
-        <v>76.89041900000001</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O6">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="P6">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="Q6">
         <v>10.75060480008278</v>
       </c>
       <c r="R6">
-        <v>96.75544320074501</v>
+        <v>96.75544320074498</v>
       </c>
       <c r="S6">
-        <v>0.1651339630738696</v>
+        <v>0.2769231469688784</v>
       </c>
       <c r="T6">
-        <v>0.1651339630738696</v>
+        <v>0.2769231469688784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.258355</v>
       </c>
       <c r="I7">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J7">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.232082666666667</v>
+        <v>1.783575</v>
       </c>
       <c r="N7">
-        <v>3.696248</v>
+        <v>5.350725000000001</v>
       </c>
       <c r="O7">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="P7">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="Q7">
-        <v>0.5167991280044444</v>
+        <v>0.7481235063749999</v>
       </c>
       <c r="R7">
-        <v>4.651192152039999</v>
+        <v>6.733111557375</v>
       </c>
       <c r="S7">
-        <v>0.007938259261454467</v>
+        <v>0.01927079634674708</v>
       </c>
       <c r="T7">
-        <v>0.007938259261454465</v>
+        <v>0.01927079634674708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5659646666666666</v>
+        <v>0.3542886666666667</v>
       </c>
       <c r="H8">
-        <v>1.697894</v>
+        <v>1.062866</v>
       </c>
       <c r="I8">
-        <v>0.2511550822658206</v>
+        <v>0.2572454086917797</v>
       </c>
       <c r="J8">
-        <v>0.2511550822658206</v>
+        <v>0.2572454086917798</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.027884333333333</v>
+        <v>0.774269</v>
       </c>
       <c r="N8">
-        <v>6.083653</v>
+        <v>2.322807</v>
       </c>
       <c r="O8">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="P8">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="Q8">
-        <v>1.147710880753555</v>
+        <v>0.2743147316513334</v>
       </c>
       <c r="R8">
-        <v>10.329397926782</v>
+        <v>2.468832584862</v>
       </c>
       <c r="S8">
-        <v>0.01762933804434674</v>
+        <v>0.007066030252384101</v>
       </c>
       <c r="T8">
-        <v>0.01762933804434674</v>
+        <v>0.007066030252384103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5659646666666666</v>
+        <v>0.3542886666666667</v>
       </c>
       <c r="H9">
-        <v>1.697894</v>
+        <v>1.062866</v>
       </c>
       <c r="I9">
-        <v>0.2511550822658206</v>
+        <v>0.2572454086917797</v>
       </c>
       <c r="J9">
-        <v>0.2511550822658206</v>
+        <v>0.2572454086917798</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.63013966666667</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N9">
-        <v>76.89041900000001</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O9">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="P9">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="Q9">
-        <v>14.50575345306511</v>
+        <v>9.080468008983777</v>
       </c>
       <c r="R9">
-        <v>130.551781077586</v>
+        <v>81.724212080854</v>
       </c>
       <c r="S9">
-        <v>0.2228146787665999</v>
+        <v>0.2339023546822828</v>
       </c>
       <c r="T9">
-        <v>0.2228146787665999</v>
+        <v>0.2339023546822828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5659646666666666</v>
+        <v>0.3542886666666667</v>
       </c>
       <c r="H10">
-        <v>1.697894</v>
+        <v>1.062866</v>
       </c>
       <c r="I10">
-        <v>0.2511550822658206</v>
+        <v>0.2572454086917797</v>
       </c>
       <c r="J10">
-        <v>0.2511550822658206</v>
+        <v>0.2572454086917798</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.232082666666667</v>
+        <v>1.783575</v>
       </c>
       <c r="N10">
-        <v>3.696248</v>
+        <v>5.350725000000001</v>
       </c>
       <c r="O10">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="P10">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="Q10">
-        <v>0.6973152557457777</v>
+        <v>0.6319004086500001</v>
       </c>
       <c r="R10">
-        <v>6.275837301711999</v>
+        <v>5.687103677850001</v>
       </c>
       <c r="S10">
-        <v>0.010711065454874</v>
+        <v>0.0162770237571128</v>
       </c>
       <c r="T10">
-        <v>0.01071106545487399</v>
+        <v>0.01627702375711281</v>
       </c>
     </row>
   </sheetData>
